--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamc2-Itga3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H2">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I2">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J2">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N2">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O2">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P2">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q2">
-        <v>7.612601764588444</v>
+        <v>8.956237832306778</v>
       </c>
       <c r="R2">
-        <v>68.513415881296</v>
+        <v>80.60614049076099</v>
       </c>
       <c r="S2">
-        <v>0.07802393447553017</v>
+        <v>0.08219953329021512</v>
       </c>
       <c r="T2">
-        <v>0.07802393447553017</v>
+        <v>0.08219953329021511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H3">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I3">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J3">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N3">
         <v>2.969483</v>
       </c>
       <c r="O3">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P3">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q3">
-        <v>0.5896555183908888</v>
+        <v>0.7874867651041112</v>
       </c>
       <c r="R3">
-        <v>5.306899665517999</v>
+        <v>7.087380885937001</v>
       </c>
       <c r="S3">
-        <v>0.006043563679381927</v>
+        <v>0.007227481647515272</v>
       </c>
       <c r="T3">
-        <v>0.006043563679381928</v>
+        <v>0.007227481647515272</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H4">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I4">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J4">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N4">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O4">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P4">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q4">
-        <v>2.342823901495333</v>
+        <v>3.040372933699333</v>
       </c>
       <c r="R4">
-        <v>21.085415113458</v>
+        <v>27.363356403294</v>
       </c>
       <c r="S4">
-        <v>0.02401233431496337</v>
+        <v>0.0279042652570916</v>
       </c>
       <c r="T4">
-        <v>0.02401233431496338</v>
+        <v>0.0279042652570916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H5">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I5">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J5">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N5">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O5">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P5">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q5">
-        <v>0.01773007689422222</v>
+        <v>0.1401384411578889</v>
       </c>
       <c r="R5">
-        <v>0.159570692048</v>
+        <v>1.261245970421</v>
       </c>
       <c r="S5">
-        <v>0.0001817210988595165</v>
+        <v>0.001286177820964566</v>
       </c>
       <c r="T5">
-        <v>0.0001817210988595165</v>
+        <v>0.001286177820964566</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12.701028</v>
       </c>
       <c r="I6">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J6">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N6">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O6">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P6">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q6">
-        <v>54.10182948952534</v>
+        <v>47.66060615877466</v>
       </c>
       <c r="R6">
-        <v>486.916465405728</v>
+        <v>428.945455428972</v>
       </c>
       <c r="S6">
-        <v>0.5545065576309233</v>
+        <v>0.4374246928155757</v>
       </c>
       <c r="T6">
-        <v>0.5545065576309235</v>
+        <v>0.4374246928155757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.701028</v>
       </c>
       <c r="I7">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J7">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N7">
         <v>2.969483</v>
       </c>
       <c r="O7">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P7">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q7">
         <v>4.190609636502667</v>
       </c>
       <c r="R7">
-        <v>37.715486728524</v>
+        <v>37.71548672852401</v>
       </c>
       <c r="S7">
-        <v>0.04295086775876894</v>
+        <v>0.03846103272061905</v>
       </c>
       <c r="T7">
-        <v>0.04295086775876895</v>
+        <v>0.03846103272061906</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>12.701028</v>
       </c>
       <c r="I8">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J8">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N8">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O8">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P8">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q8">
-        <v>16.650162869716</v>
+        <v>16.179339995432</v>
       </c>
       <c r="R8">
-        <v>149.851465827444</v>
+        <v>145.614059958888</v>
       </c>
       <c r="S8">
-        <v>0.1706527225418129</v>
+        <v>0.1484925056111068</v>
       </c>
       <c r="T8">
-        <v>0.1706527225418129</v>
+        <v>0.1484925056111069</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>12.701028</v>
       </c>
       <c r="I9">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J9">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N9">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O9">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P9">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q9">
-        <v>0.1260054875626667</v>
+        <v>0.7457465039213332</v>
       </c>
       <c r="R9">
-        <v>1.134049388064</v>
+        <v>6.711718535292</v>
       </c>
       <c r="S9">
-        <v>0.001291469619608855</v>
+        <v>0.006844393340474152</v>
       </c>
       <c r="T9">
-        <v>0.001291469619608855</v>
+        <v>0.006844393340474156</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H10">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I10">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J10">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N10">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O10">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P10">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q10">
-        <v>7.977273956825777</v>
+        <v>18.75916347204322</v>
       </c>
       <c r="R10">
-        <v>71.79546561143201</v>
+        <v>168.832471248389</v>
       </c>
       <c r="S10">
-        <v>0.08176157373633181</v>
+        <v>0.1721698899904768</v>
       </c>
       <c r="T10">
-        <v>0.08176157373633183</v>
+        <v>0.1721698899904768</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H11">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I11">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J11">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N11">
         <v>2.969483</v>
       </c>
       <c r="O11">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P11">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q11">
-        <v>0.6179022305145555</v>
+        <v>1.649419458845889</v>
       </c>
       <c r="R11">
-        <v>5.561120074631</v>
+        <v>14.844775129613</v>
       </c>
       <c r="S11">
-        <v>0.006333073059228658</v>
+        <v>0.01513822123256532</v>
       </c>
       <c r="T11">
-        <v>0.00633307305922866</v>
+        <v>0.01513822123256532</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H12">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I12">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J12">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N12">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O12">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P12">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q12">
-        <v>2.455053958262333</v>
+        <v>6.368170871200666</v>
       </c>
       <c r="R12">
-        <v>22.095485624361</v>
+        <v>57.313537840806</v>
       </c>
       <c r="S12">
-        <v>0.02516261523943084</v>
+        <v>0.05844649096262491</v>
       </c>
       <c r="T12">
-        <v>0.02516261523943085</v>
+        <v>0.05844649096262492</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H13">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I13">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J13">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N13">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O13">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P13">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q13">
-        <v>0.01857941411288889</v>
+        <v>0.2935250241921111</v>
       </c>
       <c r="R13">
-        <v>0.167214727016</v>
+        <v>2.641725217729</v>
       </c>
       <c r="S13">
-        <v>0.0001904262214373372</v>
+        <v>0.002693945878765961</v>
       </c>
       <c r="T13">
-        <v>0.0001904262214373373</v>
+        <v>0.002693945878765962</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H14">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I14">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J14">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.77892533333333</v>
+        <v>11.25749966666667</v>
       </c>
       <c r="N14">
-        <v>38.336776</v>
+        <v>33.772499</v>
       </c>
       <c r="O14">
-        <v>0.7206984557633653</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="P14">
-        <v>0.7206984557633654</v>
+        <v>0.6929800609896341</v>
       </c>
       <c r="Q14">
-        <v>0.6250555748293334</v>
+        <v>0.1292173336738889</v>
       </c>
       <c r="R14">
-        <v>5.625500173464</v>
+        <v>1.162956003065</v>
       </c>
       <c r="S14">
-        <v>0.006406389920579977</v>
+        <v>0.001185944893366454</v>
       </c>
       <c r="T14">
-        <v>0.006406389920579978</v>
+        <v>0.001185944893366454</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H15">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I15">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J15">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9898276666666667</v>
+        <v>0.9898276666666668</v>
       </c>
       <c r="N15">
         <v>2.969483</v>
       </c>
       <c r="O15">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="P15">
-        <v>0.05582372947885773</v>
+        <v>0.06093101107050686</v>
       </c>
       <c r="Q15">
-        <v>0.04841544065966667</v>
+        <v>0.01136157190055556</v>
       </c>
       <c r="R15">
-        <v>0.435738965937</v>
+        <v>0.102254147105</v>
       </c>
       <c r="S15">
-        <v>0.0004962249814781919</v>
+        <v>0.0001042754698072091</v>
       </c>
       <c r="T15">
-        <v>0.000496224981478192</v>
+        <v>0.0001042754698072091</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H16">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I16">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J16">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.932791</v>
+        <v>3.821582</v>
       </c>
       <c r="N16">
-        <v>11.798373</v>
+        <v>11.464746</v>
       </c>
       <c r="O16">
-        <v>0.2217992770602354</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="P16">
-        <v>0.2217992770602355</v>
+        <v>0.2352458543950409</v>
       </c>
       <c r="Q16">
-        <v>0.192364606183</v>
+        <v>0.04386539205666667</v>
       </c>
       <c r="R16">
-        <v>1.731281455647</v>
+        <v>0.39478852851</v>
       </c>
       <c r="S16">
-        <v>0.001971604964028351</v>
+        <v>0.0004025925642175156</v>
       </c>
       <c r="T16">
-        <v>0.001971604964028352</v>
+        <v>0.0004025925642175157</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H17">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I17">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J17">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.02976266666666667</v>
+        <v>0.1761463333333333</v>
       </c>
       <c r="N17">
-        <v>0.08928800000000001</v>
+        <v>0.528439</v>
       </c>
       <c r="O17">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481826</v>
       </c>
       <c r="P17">
-        <v>0.001678537697541373</v>
+        <v>0.01084307354481827</v>
       </c>
       <c r="Q17">
-        <v>0.001455781314666667</v>
+        <v>0.002021866329444444</v>
       </c>
       <c r="R17">
-        <v>0.013102031832</v>
+        <v>0.018196796965</v>
       </c>
       <c r="S17">
-        <v>1.492075763566412E-05</v>
+        <v>1.855650461358147E-05</v>
       </c>
       <c r="T17">
-        <v>1.492075763566412E-05</v>
+        <v>1.855650461358148E-05</v>
       </c>
     </row>
   </sheetData>
